--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanError.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>应急预案导入模板</t>
   </si>
@@ -210,7 +210,10 @@
     <t>处置内容</t>
   </si>
   <si>
-    <t>{{$fe:maplist t.orgName</t>
+    <t>{{$fe:maplist t.sort</t>
+  </si>
+  <si>
+    <t>t.orgName</t>
   </si>
   <si>
     <t>t.roleName</t>
@@ -243,7 +246,10 @@
     <t>单位</t>
   </si>
   <si>
-    <t>{{$fe:maplist t.categoryName</t>
+    <t>{{$fe:maplist2 t.sort</t>
+  </si>
+  <si>
+    <t>t.categoryName</t>
   </si>
   <si>
     <t>t.materialsCode</t>
@@ -1536,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1691,28 +1697,26 @@
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:7">
-      <c r="A12" s="25">
-        <v>1</v>
+      <c r="A12" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:7">
-      <c r="A13" s="25">
-        <v>2</v>
-      </c>
+      <c r="A13" s="25"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -1721,9 +1725,7 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:7">
-      <c r="A14" s="31">
-        <v>3</v>
-      </c>
+      <c r="A14" s="31"/>
       <c r="B14" s="28"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -1733,7 +1735,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1758,51 +1760,49 @@
         <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:7">
-      <c r="A18" s="25">
-        <v>1</v>
+      <c r="A18" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="29" customHeight="1" spans="1:7">
-      <c r="A19" s="25">
-        <v>2</v>
-      </c>
+      <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -1811,9 +1811,7 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" ht="23" customHeight="1" spans="1:7">
-      <c r="A20" s="31">
-        <v>3</v>
-      </c>
+      <c r="A20" s="31"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -1823,7 +1821,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
-    <t>应急预案导入模板</t>
+    <t>应急预案导入模板错误清单</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应急预案导入模板</t>
+      <t>应急预案导入模板错误清单</t>
     </r>
     <r>
       <rPr>
@@ -35,74 +29,10 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写须知：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.请勿增加、删除、或修改表格中的字段顺序、字段名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.请勿删除表格中填充颜色的字段；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+3.请勿删除表格中填充颜色的字段；
 </t>
     </r>
     <r>
@@ -121,40 +51,8 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预案类型:综合应急预案/专项应急预案/现场处置方案；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应急队伍名称：可输入多个队伍，用分号“:”分隔；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+预案类型:综合应急预案/专项应急预案/现场处置方案；
+应急队伍名称：可输入多个队伍，用分号“:”分隔；
 </t>
     </r>
   </si>
@@ -296,6 +194,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -458,12 +362,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -961,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,34 +871,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,94 +907,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,103 +1020,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanError.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="导入错误清单模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应急预案导入模板错误清单</t>
     </r>
     <r>
@@ -1441,7 +1447,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="B6" sqref="B6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
